--- a/originales/respuestas/2025/01. Calificadas/Alcaldía Local De Engativá.xlsx
+++ b/originales/respuestas/2025/01. Calificadas/Alcaldía Local De Engativá.xlsx
@@ -1,28 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\Desktop\Respuesta\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB1BF9D-2A70-4354-9F47-EA0E925277D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{2EE5E18B-FE7D-46ED-97F1-68E2B14D22E9}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="C1" sheetId="2" r:id="rId2"/>
-    <sheet name="C2" sheetId="3" r:id="rId3"/>
-    <sheet name="C3" sheetId="4" r:id="rId4"/>
-    <sheet name="C4" sheetId="5" r:id="rId5"/>
+    <sheet name="C1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="C2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="C3" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="C4" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -31,661 +25,597 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="180">
   <si>
-    <t>Entidad</t>
-  </si>
-  <si>
-    <t>id pregunta</t>
-  </si>
-  <si>
-    <t>orden</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>variable</t>
-  </si>
-  <si>
-    <t>componente</t>
-  </si>
-  <si>
-    <t>Pregunta</t>
-  </si>
-  <si>
-    <t>Tipo pregunta</t>
-  </si>
-  <si>
-    <t>Respuesta</t>
-  </si>
-  <si>
-    <t>Criterio 1</t>
-  </si>
-  <si>
-    <t>N C1</t>
-  </si>
-  <si>
-    <t>Criterio 2</t>
-  </si>
-  <si>
-    <t>N C2</t>
-  </si>
-  <si>
-    <t>Criterio 3</t>
-  </si>
-  <si>
-    <t>N C3</t>
-  </si>
-  <si>
-    <t>Criterio 4</t>
-  </si>
-  <si>
-    <t>N C4</t>
-  </si>
-  <si>
-    <t>Criterio 5</t>
-  </si>
-  <si>
-    <t>N C5</t>
-  </si>
-  <si>
-    <t>Alcaldía Local De Engativá</t>
-  </si>
-  <si>
-    <t>Pregunta 1.</t>
-  </si>
-  <si>
-    <t>Variable 1</t>
-  </si>
-  <si>
-    <t>COMPONENTE 1.</t>
-  </si>
-  <si>
-    <t>¿En su entidad existen o existieron decretos, resoluciones, circulares u otros actos administrativos relacionados con el concepto de innovación pública?</t>
-  </si>
-  <si>
-    <t>Raiz</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>Pregunta 2.</t>
-  </si>
-  <si>
-    <t>¿La planeación estratégica de su entidad incluye enfoques, líneas, componentes, planes, programas, proyectos de inversión u otros relacionados con la innovación pública?</t>
-  </si>
-  <si>
-    <t>Pregunta 3.</t>
-  </si>
-  <si>
-    <t>Variable 2</t>
-  </si>
-  <si>
-    <t>Ingrese el presupuesto de funcionamiento total de su entidad para 2023</t>
-  </si>
-  <si>
-    <t>Numero</t>
-  </si>
-  <si>
-    <t>5.880.653.199</t>
-  </si>
-  <si>
-    <t>Ingrese el presupuesto de funcionamiento total de su entidad para 2024</t>
-  </si>
-  <si>
-    <t>numero</t>
-  </si>
-  <si>
-    <t>6.417.082.522</t>
-  </si>
-  <si>
-    <t>¿Cuál fue el valor del presupuesto general de funcionamiento ejecutado de su entidad?</t>
-  </si>
-  <si>
-    <t>Soporte</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ejecucion gastos 2023_2024_engativa.xlsx</t>
-    </r>
-  </si>
-  <si>
-    <t>Pregunta 4.</t>
-  </si>
-  <si>
-    <t>Ingrese el presupuesto de funcionamiento ejecutado en innovación para 2023.</t>
-  </si>
-  <si>
-    <t>Indique los objetos bajo los cuales se ejecutó el gasto en innovación para 2023.</t>
-  </si>
-  <si>
-    <t>texto</t>
-  </si>
-  <si>
-    <t>No se incluyo presupuesto de funcionamiento específicamente para temas de innovación en esta vigencia.</t>
-  </si>
-  <si>
-    <t>Ingrese el presupuesto de funcionamiento ejecutado en innovación para 2024.</t>
-  </si>
-  <si>
-    <t>Indique los objetos bajo los cuales se ejecutó el gasto en innovación para 2024.</t>
-  </si>
-  <si>
-    <t>Discrimine las acciones en las que se ejecutó dicho presupuesto</t>
-  </si>
-  <si>
-    <t>soporte</t>
-  </si>
-  <si>
-    <t>Pregunta 5.</t>
-  </si>
-  <si>
-    <t>Ingrese el presupuesto de inversión total de su entidad para 2023.</t>
-  </si>
-  <si>
-    <t>99.661.376.152</t>
-  </si>
-  <si>
-    <t>Ingrese el presupuesto de inversión total de su entidad para 2024.</t>
-  </si>
-  <si>
-    <t>106.006.675.232</t>
-  </si>
-  <si>
-    <t>Discrimine por año.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Informes_ejecución presupuestal 2023 y 2024.pdf</t>
-    </r>
-  </si>
-  <si>
-    <t>Pregunta 6.</t>
-  </si>
-  <si>
-    <t>Presupuesto 2023</t>
-  </si>
-  <si>
-    <t>1.384.300.579</t>
-  </si>
-  <si>
-    <t>Proyecto 1598_Engativá emprende, se transforma e innova</t>
-  </si>
-  <si>
-    <t>Presupuesto 2024</t>
-  </si>
-  <si>
-    <t>$588.090.000</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Informes_Ejecución presupuestal_corte_dic_2023 y 2024.pdf</t>
-    </r>
-  </si>
-  <si>
-    <t>Pregunta 7.</t>
-  </si>
-  <si>
-    <t>Variable 3</t>
-  </si>
-  <si>
-    <t>Total de funcionarios para 2023.</t>
-  </si>
-  <si>
-    <t>Total de funcionarios para 2024.</t>
-  </si>
-  <si>
-    <t>Pregunta 8.</t>
-  </si>
-  <si>
-    <t>Total de funcionarios para 2023 relacionados directamente con la innovación.</t>
-  </si>
-  <si>
-    <t>Total de funcionarios para 2024 relacionados directamente con la innovación</t>
-  </si>
-  <si>
-    <t>Indique las unidades de gestión a las cuales pertenecieron los funcionarios enunciados.</t>
-  </si>
-  <si>
-    <t>No trabajaron funcionarios cuyo manual de funciones estuviera relacionado directamente con la innovación.</t>
-  </si>
-  <si>
-    <t>Pregunta 9.</t>
-  </si>
-  <si>
-    <t>Total de colaboradores para 2023.</t>
-  </si>
-  <si>
-    <t>Total de colaboradores para 2024.</t>
-  </si>
-  <si>
-    <t>Pregunta 10.</t>
-  </si>
-  <si>
-    <t>Total de colaboradores para 2023 relacionados directamente con la innovación.</t>
-  </si>
-  <si>
-    <t>Total de colaboradores para 2024 relacionados directamente con la innovación</t>
-  </si>
-  <si>
-    <t>Indique las unidades de gestión a las cuales pertenecieron los colaboradores. enunciados.</t>
-  </si>
-  <si>
-    <t>Proyecto 1598:Engativá emprende, se transforma e innova _ Ubicación interna: Desarrollo económico</t>
-  </si>
-  <si>
-    <t>Pregunta 11.</t>
-  </si>
-  <si>
-    <t>Variable 4</t>
-  </si>
-  <si>
-    <t>¿Su entidad adquirió recursos digitales como habilitantes de la innovación?</t>
-  </si>
-  <si>
-    <t>Pregunta 12.</t>
-  </si>
-  <si>
-    <t>¿Su entidad ha utilizado alguna herramienta de Inteligencia Artificial en alguno de sus procesos o actividades?</t>
-  </si>
-  <si>
-    <t>Pregunta 13.</t>
-  </si>
-  <si>
-    <t>Políticas y regulaciones: ¿Cuenta la entidad con lineamientos o protocolos específicos para el uso ético y transparente de la IA?</t>
-  </si>
-  <si>
-    <t>Microsoft 365 Copilot incorpora robustos protocolos de seguridad que garantizan la protección de los datos y la privacidad de los usuarios. Entre ellos se incluyen el cifrado de datos en tránsito y en reposo, la prevención de pérdida de datos (DLP), y el uso de etiquetas de confidencialidad. Además, cuenta con mecanismos de protección contra contenido malicioso y ataques de inyección de prompts. Copilot no utiliza los datos de los clientes para entrenar sus modelos, lo que refuerza la confidencialidad y el uso ético de la información.
+    <t xml:space="preserve">Entidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id pregunta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">componente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipo pregunta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respuesta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criterio 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criterio 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criterio 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criterio 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criterio 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N C5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcaldía Local De Engativá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPONENTE 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿En su entidad existen o existieron decretos, resoluciones, circulares u otros actos administrativos relacionados con el concepto de innovación pública?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿La planeación estratégica de su entidad incluye enfoques, líneas, componentes, planes, programas, proyectos de inversión u otros relacionados con la innovación pública?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese el presupuesto de funcionamiento total de su entidad para 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.880.653.199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese el presupuesto de funcionamiento total de su entidad para 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.417.082.522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuál fue el valor del presupuesto general de funcionamiento ejecutado de su entidad?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ejecucion gastos 2023_2024_engativa.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese el presupuesto de funcionamiento ejecutado en innovación para 2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indique los objetos bajo los cuales se ejecutó el gasto en innovación para 2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">texto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se incluyo presupuesto de funcionamiento específicamente para temas de innovación en esta vigencia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese el presupuesto de funcionamiento ejecutado en innovación para 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indique los objetos bajo los cuales se ejecutó el gasto en innovación para 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrimine las acciones en las que se ejecutó dicho presupuesto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese el presupuesto de inversión total de su entidad para 2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99.661.376.152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese el presupuesto de inversión total de su entidad para 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.006.675.232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrimine por año.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informes_ejecución presupuestal 2023 y 2024.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presupuesto 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.384.300.579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proyecto 1598_Engativá emprende, se transforma e innova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presupuesto 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$588.090.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informes_Ejecución presupuestal_corte_dic_2023 y 2024.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 7.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de funcionarios para 2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de funcionarios para 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 8.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de funcionarios para 2023 relacionados directamente con la innovación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de funcionarios para 2024 relacionados directamente con la innovación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indique las unidades de gestión a las cuales pertenecieron los funcionarios enunciados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No trabajaron funcionarios cuyo manual de funciones estuviera relacionado directamente con la innovación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 9.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de colaboradores para 2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de colaboradores para 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 10.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de colaboradores para 2023 relacionados directamente con la innovación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de colaboradores para 2024 relacionados directamente con la innovación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indique las unidades de gestión a las cuales pertenecieron los colaboradores. enunciados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proyecto 1598:Engativá emprende, se transforma e innova _ Ubicación interna: Desarrollo económico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 11.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Su entidad adquirió recursos digitales como habilitantes de la innovación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 12.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Su entidad ha utilizado alguna herramienta de Inteligencia Artificial en alguno de sus procesos o actividades?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 13.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Políticas y regulaciones: ¿Cuenta la entidad con lineamientos o protocolos específicos para el uso ético y transparente de la IA?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft 365 Copilot incorpora robustos protocolos de seguridad que garantizan la protección de los datos y la privacidad de los usuarios. Entre ellos se incluyen el cifrado de datos en tránsito y en reposo, la prevención de pérdida de datos (DLP), y el uso de etiquetas de confidencialidad. Además, cuenta con mecanismos de protección contra contenido malicioso y ataques de inyección de prompts. Copilot no utiliza los datos de los clientes para entrenar sus modelos, lo que refuerza la confidencialidad y el uso ético de la información.
  En cuanto al cumplimiento normativo, Copilot se ajusta a estándares internacionales como el RGPD y respeta las normativas locales de residencia de datos. Está completamente integrado con las políticas de seguridad de Microsoft 365, incluyendo controles de acceso condicional, auditorías y barreras de información. Todo esto permite que las organizaciones del sector público y privado puedan adoptar esta herramienta con confianza, asegurando que la información se gestiona de forma segura y responsable.</t>
   </si>
   <si>
-    <t>Orden</t>
-  </si>
-  <si>
-    <t>Pregunta 14.</t>
-  </si>
-  <si>
-    <t>Variable 5</t>
-  </si>
-  <si>
-    <t>COMPONENTE 2.</t>
-  </si>
-  <si>
-    <t>¿Su entidad encontró retos o áreas de oportunidad para abordar desde la innovación gracias a "Bogotá te Escucha"?</t>
-  </si>
-  <si>
-    <t>raiz</t>
-  </si>
-  <si>
-    <t>Pregunta 15.</t>
-  </si>
-  <si>
-    <t>¿Su entidad identificó retos o áreas de oportunidad desde la ciudadanía por canales diferentes a "Bogotá te Escucha"?</t>
-  </si>
-  <si>
-    <t>Pregunta 16.</t>
-  </si>
-  <si>
-    <t>¿Su entidad identificó retos o áreas de oportunidad desde los funcionarios y/o contratistas?</t>
-  </si>
-  <si>
-    <t>Pregunta 17.</t>
-  </si>
-  <si>
-    <t>¿Cuáles fueron los canales internos y externos para la identificación de problemáticas o desafíos a resolver desde la innovación?</t>
-  </si>
-  <si>
-    <t>Pregunta 18.</t>
-  </si>
-  <si>
-    <t>¿Cuáles estrategias implementó su entidad para la identificación de problemáticas o desafíos a resolver desde la innovación?</t>
-  </si>
-  <si>
-    <t>Pregunta 19.</t>
-  </si>
-  <si>
-    <t>Variable 6</t>
-  </si>
-  <si>
-    <t>¿Qué criterios utiliza su entidad para priorizar las áreas de oportunidad identificadas que pueden ser abordadas con innovación?</t>
-  </si>
-  <si>
-    <t>Urgencia del problema y su impacto en la ciudadanía., Alineación con los objetivos estratégicos de la
+    <t xml:space="preserve">Orden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 14.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPONENTE 2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Su entidad encontró retos o áreas de oportunidad para abordar desde la innovación gracias a "Bogotá te Escucha"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 15.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Su entidad identificó retos o áreas de oportunidad desde la ciudadanía por canales diferentes a "Bogotá te Escucha"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 16.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Su entidad identificó retos o áreas de oportunidad desde los funcionarios y/o contratistas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 17.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuáles fueron los canales internos y externos para la identificación de problemáticas o desafíos a resolver desde la innovación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 18.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuáles estrategias implementó su entidad para la identificación de problemáticas o desafíos a resolver desde la innovación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 19.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué criterios utiliza su entidad para priorizar las áreas de oportunidad identificadas que pueden ser abordadas con innovación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urgencia del problema y su impacto en la ciudadanía., Alineación con los objetivos estratégicos de la
  entidad, Demanda de la ciudadanía o de actores externos</t>
   </si>
   <si>
-    <t>Pregunta 20.</t>
-  </si>
-  <si>
-    <t>Actores involucrados en la toma de decisiones. ¿Quiénes participan en la priorización de las problemáticas que serán abordadas con innovación?</t>
-  </si>
-  <si>
-    <t>Alta dirección o directivos., Equipos técnicos y operativos., Áreas de planeación o estrategia., Ciudadanía y actores externos (mesas de
+    <t xml:space="preserve">Pregunta 20.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actores involucrados en la toma de decisiones. ¿Quiénes participan en la priorización de las problemáticas que serán abordadas con innovación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alta dirección o directivos., Equipos técnicos y operativos., Áreas de planeación o estrategia., Ciudadanía y actores externos (mesas de
  participación, encuestas).</t>
   </si>
   <si>
-    <t>Pregunta 21.</t>
-  </si>
-  <si>
-    <t>Conexión con el desarrollo del proceso de innovación. ¿Cómo se vinculan las áreas de oportunidad priorizadas con el desarrollo de procesos de innovación dentro de su entidad?(Marque todas las opciones que correspondan)</t>
-  </si>
-  <si>
-    <t>Se incluyen en la planeación estratégica o planes de
+    <t xml:space="preserve">Pregunta 21.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conexión con el desarrollo del proceso de innovación. ¿Cómo se vinculan las áreas de oportunidad priorizadas con el desarrollo de procesos de innovación dentro de su entidad?(Marque todas las opciones que correspondan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se incluyen en la planeación estratégica o planes de
  acción de la entidad., Se asignan equipos específicos para su análisis y
  solución</t>
   </si>
   <si>
-    <t>Pregunta 22.</t>
-  </si>
-  <si>
-    <t>¿Qué metodologías utiliza su entidad para el desarrollo de procesos de innovación?(Marque todas las opciones que correspondan)</t>
-  </si>
-  <si>
-    <t>Laboratorios de innovación., Doble Diamante., Design Thinking</t>
-  </si>
-  <si>
-    <t>Pregunta 23.</t>
-  </si>
-  <si>
-    <t>¿Cuáles herramientas ha utilizado su entidad para el desarrollo de procesos de innovación?(Marque todas las opciones que apliquen)</t>
-  </si>
-  <si>
-    <t>Grupos focales.
+    <t xml:space="preserve">Pregunta 22.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué metodologías utiliza su entidad para el desarrollo de procesos de innovación?(Marque todas las opciones que correspondan)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboratorios de innovación., Doble Diamante., Design Thinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 23.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuáles herramientas ha utilizado su entidad para el desarrollo de procesos de innovación?(Marque todas las opciones que apliquen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupos focales.
  , Observación.</t>
   </si>
   <si>
-    <t>Pregunta 24.</t>
-  </si>
-  <si>
-    <t>¿Quiénes participan activamente en los procesos de innovación en su entidad?(Marque todas las opciones que apliquen)</t>
-  </si>
-  <si>
-    <t>Secretario(a), Director o máxima autoridad administrativa de la entidad, Cuerpo de Directivos y tomadores de decisiones., Funcionarios de diferentes áreas., Ciudadanía y usuarios del servicio público., Universidades y centros de investigación., Empresas del sector privado.</t>
-  </si>
-  <si>
-    <t>Pregunta 25.</t>
-  </si>
-  <si>
-    <t>¿Qué tan frecuente es la colaboración con actores externos (ciudadanos, academia, sector privado, organismos internacionales) en el desarrollo de innovaciones?</t>
-  </si>
-  <si>
-    <t>Se involucran en todas las etapas del proceso de innovación.</t>
-  </si>
-  <si>
-    <t>Pregunta 26.</t>
-  </si>
-  <si>
-    <t>¿Cuáles son los principales factores que han facilitado el desarrollo de procesos de innovación en su entidad?(Marque todas las opciones que apliquen)</t>
-  </si>
-  <si>
-    <t>Apoyo de la alta dirección., Recursos financieros suficientes., Cultura organizacional favorable a la innovación., Disponibilidad de datos y tecnología., Capacidad técnica y formación del equipo.</t>
-  </si>
-  <si>
-    <t>Pregunta 27.</t>
-  </si>
-  <si>
-    <t>¿Cuáles son las principales barreras que ha enfrentado su entidad en el desarrollo de procesos de innovación?</t>
-  </si>
-  <si>
-    <t>Falta de presupuesto o financiamiento.</t>
-  </si>
-  <si>
-    <t>Pregunta 28.</t>
-  </si>
-  <si>
-    <t>Variable 7</t>
-  </si>
-  <si>
-    <t>¿Su entidad diseñó innovaciones encaminadas al cumplimiento de los objetivos y metas de su entidad?</t>
-  </si>
-  <si>
-    <t>Pregunta 29.</t>
-  </si>
-  <si>
-    <t>Variable 8</t>
-  </si>
-  <si>
-    <t>¿Su entidad ha puesto a disposición de todos formación orientada al fortalecimiento de capacidades en innovación?</t>
-  </si>
-  <si>
-    <t>Pregunta 30</t>
-  </si>
-  <si>
-    <t>¿Qué estrategias o iniciativas ha implementado su entidad para fomentar una cultura de innovación entre sus funcionarios y contratistas?</t>
-  </si>
-  <si>
-    <t>Programas de sensibilización sobre innovación pública., Espacios de ideación y cocreación con los equipos internos., Incentivos o reconocimientos a iniciativas innovadoras de los funcionarios., Procesos de formación o capacitaciones en metodologías de innovación., Creación de equipos o laboratorios de innovación internos.</t>
-  </si>
-  <si>
-    <t>Pregunta 31</t>
-  </si>
-  <si>
-    <t>¿De qué manera ha incentivado su entidad la participación de los funcionarios y contratistas en procesos de innovación?</t>
-  </si>
-  <si>
-    <t>Convocatorias abiertas para proponer soluciones innovadoras., Programas de mentoría o acompañamiento en proyectos innovadores., Espacios de experimentación y pruebas piloto dentro de la entidad., Alianzas con otras entidades o sectores para fortalecer la innovación.</t>
-  </si>
-  <si>
-    <t>Pregunta 32.</t>
-  </si>
-  <si>
-    <t>Variable 9</t>
-  </si>
-  <si>
-    <t>¿Su entidad creó o contó con unidades de innovación como laboratorios, observatorios o semilleros de innovación en su interior?</t>
-  </si>
-  <si>
-    <t>Pregunta 33.</t>
-  </si>
-  <si>
-    <t>Variable 10</t>
-  </si>
-  <si>
-    <t>COMPONENTE 3.</t>
-  </si>
-  <si>
-    <t>¿Alguna de las innovaciones diseñadas fue implementada, o está en proceso de implementación actualmente?
+    <t xml:space="preserve">Pregunta 24.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Quiénes participan activamente en los procesos de innovación en su entidad?(Marque todas las opciones que apliquen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secretario(a), Director o máxima autoridad administrativa de la entidad, Cuerpo de Directivos y tomadores de decisiones., Funcionarios de diferentes áreas., Ciudadanía y usuarios del servicio público., Universidades y centros de investigación., Empresas del sector privado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 25.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué tan frecuente es la colaboración con actores externos (ciudadanos, academia, sector privado, organismos internacionales) en el desarrollo de innovaciones?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se involucran en todas las etapas del proceso de innovación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 26.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuáles son los principales factores que han facilitado el desarrollo de procesos de innovación en su entidad?(Marque todas las opciones que apliquen)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apoyo de la alta dirección., Recursos financieros suficientes., Cultura organizacional favorable a la innovación., Disponibilidad de datos y tecnología., Capacidad técnica y formación del equipo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 27.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuáles son las principales barreras que ha enfrentado su entidad en el desarrollo de procesos de innovación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Falta de presupuesto o financiamiento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 28.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Su entidad diseñó innovaciones encaminadas al cumplimiento de los objetivos y metas de su entidad?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 29.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Su entidad ha puesto a disposición de todos formación orientada al fortalecimiento de capacidades en innovación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué estrategias o iniciativas ha implementado su entidad para fomentar una cultura de innovación entre sus funcionarios y contratistas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programas de sensibilización sobre innovación pública., Espacios de ideación y cocreación con los equipos internos., Incentivos o reconocimientos a iniciativas innovadoras de los funcionarios., Procesos de formación o capacitaciones en metodologías de innovación., Creación de equipos o laboratorios de innovación internos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿De qué manera ha incentivado su entidad la participación de los funcionarios y contratistas en procesos de innovación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convocatorias abiertas para proponer soluciones innovadoras., Programas de mentoría o acompañamiento en proyectos innovadores., Espacios de experimentación y pruebas piloto dentro de la entidad., Alianzas con otras entidades o sectores para fortalecer la innovación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 32.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Su entidad creó o contó con unidades de innovación como laboratorios, observatorios o semilleros de innovación en su interior?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 33.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPONENTE 3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Alguna de las innovaciones diseñadas fue implementada, o está en proceso de implementación actualmente?
  Para cada innovación señalada en la pregunta 28, indique:</t>
   </si>
   <si>
-    <t>Pregunta 34.</t>
-  </si>
-  <si>
-    <t>Variable 11</t>
-  </si>
-  <si>
-    <t>¿Cómo se desarrollan y validan las soluciones innovadoras dentro de su entidad?.</t>
-  </si>
-  <si>
-    <t>Se desarrollan prototipos o pruebas piloto antes de la implementación., Se realizan ejercicios de retroalimentación con usuarios y funcionarios.</t>
-  </si>
-  <si>
-    <t>Ingrese un archivo de soporte que justifique su respuesta (PDF, Word o Excel)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri, sans-serif"/>
-      </rPr>
-      <t>Manual Tecnico sistema de información WEB Miengativapp.pdf</t>
-    </r>
-  </si>
-  <si>
-    <t>Pregunta 35.</t>
-  </si>
-  <si>
-    <t>Variable 12</t>
-  </si>
-  <si>
-    <t>COMPONENTE 4.</t>
-  </si>
-  <si>
-    <t>¿Existen dentro de la planeación estratégica de la entidad enfoques / líneas / componentes / proyectos / programas o planes relacionados con la gestión del conocimiento?</t>
-  </si>
-  <si>
-    <t>Pregunta 36.</t>
-  </si>
-  <si>
-    <t>Variable 13</t>
-  </si>
-  <si>
-    <t>¿Cuáles son los principales mecanismos y eventos a través de los cuales la entidad comparte su conocimiento en innovación? (Redes internas, boletines, plataformas digitales, eventos, etc.)</t>
-  </si>
-  <si>
-    <t>Espacios de socialización interna (foros, reuniones estratégicas)., Plataformas digitales internas o repositorios de conocimiento.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Respuesta_Pregunta_36.docx</t>
-    </r>
-  </si>
-  <si>
-    <t>Pregunta 37.</t>
-  </si>
-  <si>
-    <t>¿Cómo mide su entidad el impacto de los mecanismos de difusión de conocimiento en innovación?</t>
-  </si>
-  <si>
-    <t>Número de participantes en eventos de difusión., Cantidad de documentos o publicaciones generadas.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Pregunta 37.zip</t>
-    </r>
-  </si>
-  <si>
-    <t>Pregunta 38.</t>
-  </si>
-  <si>
-    <t>¿Qué tipo de documentos o productos utiliza su entidad para capturar aprendizajes en innovación?</t>
-  </si>
-  <si>
-    <t>Documentos técnicos o metodológicos</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Documento técnico de soporte_Proyecto_1598 Engativa emprende, se transforma e innova.pdf</t>
-    </r>
-  </si>
-  <si>
-    <t>Pregunta 39.</t>
-  </si>
-  <si>
-    <t>¿Cómo mide su entidad el impacto de la documentación y su sistematización en la innovación?</t>
-  </si>
-  <si>
-    <t>No se mide el impacto.</t>
-  </si>
-  <si>
-    <t>Ingrese un archivo de soporte que justifique su respuesta (PDF, Word o Excel).</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Matriz_Productos, metas y resultados_Engativá PMR 31-12-2024 (1).pdf</t>
-    </r>
-  </si>
-  <si>
-    <t>Pregunta 40.</t>
-  </si>
-  <si>
-    <t>Variable 14</t>
-  </si>
-  <si>
-    <t>¿Su entidad desarrolló algún instrumento para hacer monitoreo y seguimiento a las innovaciones implementadas?</t>
-  </si>
-  <si>
-    <t>si</t>
+    <t xml:space="preserve">si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 34.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo se desarrollan y validan las soluciones innovadoras dentro de su entidad?.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se desarrollan prototipos o pruebas piloto antes de la implementación., Se realizan ejercicios de retroalimentación con usuarios y funcionarios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese un archivo de soporte que justifique su respuesta (PDF, Word o Excel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manual Tecnico sistema de información WEB Miengativapp.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 35.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPONENTE 4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Existen dentro de la planeación estratégica de la entidad enfoques / líneas / componentes / proyectos / programas o planes relacionados con la gestión del conocimiento?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 36.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cuáles son los principales mecanismos y eventos a través de los cuales la entidad comparte su conocimiento en innovación? (Redes internas, boletines, plataformas digitales, eventos, etc.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espacios de socialización interna (foros, reuniones estratégicas)., Plataformas digitales internas o repositorios de conocimiento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Respuesta_Pregunta_36.docx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 37.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo mide su entidad el impacto de los mecanismos de difusión de conocimiento en innovación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de participantes en eventos de difusión., Cantidad de documentos o publicaciones generadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 37.zip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 38.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Qué tipo de documentos o productos utiliza su entidad para capturar aprendizajes en innovación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documentos técnicos o metodológicos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documento técnico de soporte_Proyecto_1598 Engativa emprende, se transforma e innova.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 39.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Cómo mide su entidad el impacto de la documentación y su sistematización en la innovación?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se mide el impacto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingrese un archivo de soporte que justifique su respuesta (PDF, Word o Excel).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matriz_Productos, metas y resultados_Engativá PMR 31-12-2024 (1).pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pregunta 40.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Variable 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Su entidad desarrolló algún instrumento para hacer monitoreo y seguimiento a las innovaciones implementadas?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF1155CC"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF1155CC"/>
-      <name val="Calibri, sans-serif"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -698,31 +628,31 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF356854"/>
-        <bgColor rgb="FF356854"/>
+        <bgColor rgb="FF284E3F"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF6F8F9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6F8F9"/>
-        <bgColor rgb="FFF6F8F9"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="5">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -737,7 +667,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FF356854"/>
       </left>
@@ -752,7 +682,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FF356854"/>
       </left>
@@ -767,7 +697,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
@@ -783,281 +713,284 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFF6F8F9"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF356854"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF284E3F"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -1065,33 +998,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -1104,13 +1028,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -1120,15 +1038,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -1136,7 +1052,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -1144,50 +1059,32 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE0095BC-4555-4A0F-B73A-55927356149D}">
-  <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECCBE63-DC33-4959-81DF-C7D70BE635A3}">
-  <sheetPr codeName="Hoja2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A27" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="43.5" customHeight="1">
+    <row r="1" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1258,14 +1155,14 @@
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
     </row>
-    <row r="2" spans="1:31" ht="126.75" customHeight="1">
+    <row r="2" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -1287,19 +1184,19 @@
         <v>25</v>
       </c>
       <c r="J2" s="6"/>
-      <c r="K2" s="6">
+      <c r="K2" s="6" t="n">
         <v>5</v>
       </c>
       <c r="L2" s="6"/>
-      <c r="M2" s="6">
+      <c r="M2" s="6" t="n">
         <v>5</v>
       </c>
       <c r="N2" s="6"/>
-      <c r="O2" s="6">
+      <c r="O2" s="6" t="n">
         <v>5</v>
       </c>
       <c r="P2" s="6"/>
-      <c r="Q2" s="6">
+      <c r="Q2" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R2" s="6"/>
@@ -1317,14 +1214,14 @@
       <c r="AD2" s="8"/>
       <c r="AE2" s="8"/>
     </row>
-    <row r="3" spans="1:31" ht="126.75" customHeight="1">
+    <row r="3" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="10" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -1346,19 +1243,19 @@
         <v>25</v>
       </c>
       <c r="J3" s="9"/>
-      <c r="K3" s="9">
+      <c r="K3" s="9" t="n">
         <v>3</v>
       </c>
       <c r="L3" s="9"/>
-      <c r="M3" s="9">
+      <c r="M3" s="9" t="n">
         <v>3</v>
       </c>
       <c r="N3" s="9"/>
-      <c r="O3" s="9">
+      <c r="O3" s="9" t="n">
         <v>3</v>
       </c>
       <c r="P3" s="9"/>
-      <c r="Q3" s="9">
+      <c r="Q3" s="9" t="n">
         <v>1</v>
       </c>
       <c r="R3" s="9"/>
@@ -1376,14 +1273,14 @@
       <c r="AD3" s="8"/>
       <c r="AE3" s="8"/>
     </row>
-    <row r="4" spans="1:31" ht="126.75" customHeight="1">
+    <row r="4" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -1405,15 +1302,15 @@
         <v>32</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="6">
+      <c r="K4" s="6" t="n">
         <v>4</v>
       </c>
       <c r="L4" s="6"/>
-      <c r="M4" s="6">
+      <c r="M4" s="6" t="n">
         <v>4</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="6">
+      <c r="O4" s="6" t="n">
         <v>3</v>
       </c>
       <c r="P4" s="6"/>
@@ -1433,14 +1330,14 @@
       <c r="AD4" s="8"/>
       <c r="AE4" s="8"/>
     </row>
-    <row r="5" spans="1:31" ht="126.75" customHeight="1">
+    <row r="5" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -1462,15 +1359,15 @@
         <v>35</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="6">
+      <c r="K5" s="6" t="n">
         <v>4</v>
       </c>
       <c r="L5" s="6"/>
-      <c r="M5" s="6">
+      <c r="M5" s="6" t="n">
         <v>4</v>
       </c>
       <c r="N5" s="6"/>
-      <c r="O5" s="6">
+      <c r="O5" s="6" t="n">
         <v>3</v>
       </c>
       <c r="P5" s="6"/>
@@ -1490,12 +1387,12 @@
       <c r="AD5" s="8"/>
       <c r="AE5" s="8"/>
     </row>
-    <row r="6" spans="1:31" ht="126.75" customHeight="1">
+    <row r="6" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="9"/>
-      <c r="C6" s="10">
+      <c r="C6" s="10" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -1515,15 +1412,15 @@
         <v>38</v>
       </c>
       <c r="J6" s="9"/>
-      <c r="K6" s="6">
+      <c r="K6" s="6" t="n">
         <v>4</v>
       </c>
       <c r="L6" s="6"/>
-      <c r="M6" s="6">
+      <c r="M6" s="6" t="n">
         <v>4</v>
       </c>
       <c r="N6" s="6"/>
-      <c r="O6" s="6">
+      <c r="O6" s="6" t="n">
         <v>3</v>
       </c>
       <c r="P6" s="9"/>
@@ -1543,14 +1440,14 @@
       <c r="AD6" s="8"/>
       <c r="AE6" s="8"/>
     </row>
-    <row r="7" spans="1:31" ht="126.75" customHeight="1">
+    <row r="7" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -1568,27 +1465,27 @@
       <c r="H7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="6">
+      <c r="K7" s="6" t="n">
         <v>1</v>
       </c>
       <c r="L7" s="6"/>
-      <c r="M7" s="6">
+      <c r="M7" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N7" s="6"/>
-      <c r="O7" s="6">
+      <c r="O7" s="6" t="n">
         <v>1</v>
       </c>
       <c r="P7" s="6"/>
-      <c r="Q7" s="6">
+      <c r="Q7" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R7" s="6"/>
-      <c r="S7" s="6">
+      <c r="S7" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T7" s="8"/>
@@ -1604,14 +1501,14 @@
       <c r="AD7" s="8"/>
       <c r="AE7" s="8"/>
     </row>
-    <row r="8" spans="1:31" ht="126.75" customHeight="1">
+    <row r="8" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="9" t="n">
         <v>42</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="10" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -1633,23 +1530,23 @@
         <v>43</v>
       </c>
       <c r="J8" s="9"/>
-      <c r="K8" s="6">
+      <c r="K8" s="6" t="n">
         <v>1</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="6">
+      <c r="M8" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N8" s="6"/>
-      <c r="O8" s="6">
+      <c r="O8" s="6" t="n">
         <v>1</v>
       </c>
       <c r="P8" s="6"/>
-      <c r="Q8" s="6">
+      <c r="Q8" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R8" s="6"/>
-      <c r="S8" s="6">
+      <c r="S8" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T8" s="8"/>
@@ -1665,14 +1562,14 @@
       <c r="AD8" s="8"/>
       <c r="AE8" s="8"/>
     </row>
-    <row r="9" spans="1:31" ht="126.75" customHeight="1">
+    <row r="9" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="9" t="n">
         <v>43</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="10" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -1690,27 +1587,27 @@
       <c r="H9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="9" t="n">
         <v>0</v>
       </c>
       <c r="J9" s="9"/>
-      <c r="K9" s="6">
+      <c r="K9" s="6" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="6"/>
-      <c r="M9" s="6">
+      <c r="M9" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N9" s="6"/>
-      <c r="O9" s="6">
+      <c r="O9" s="6" t="n">
         <v>1</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="6">
+      <c r="Q9" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="6"/>
-      <c r="S9" s="6">
+      <c r="S9" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T9" s="8"/>
@@ -1726,14 +1623,14 @@
       <c r="AD9" s="8"/>
       <c r="AE9" s="8"/>
     </row>
-    <row r="10" spans="1:31" ht="126.75" customHeight="1">
+    <row r="10" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="7" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="6" t="s">
@@ -1755,23 +1652,23 @@
         <v>43</v>
       </c>
       <c r="J10" s="6"/>
-      <c r="K10" s="6">
+      <c r="K10" s="6" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="6">
+      <c r="M10" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N10" s="6"/>
-      <c r="O10" s="6">
+      <c r="O10" s="6" t="n">
         <v>1</v>
       </c>
       <c r="P10" s="6"/>
-      <c r="Q10" s="6">
+      <c r="Q10" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="6"/>
-      <c r="S10" s="6">
+      <c r="S10" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T10" s="8"/>
@@ -1787,12 +1684,12 @@
       <c r="AD10" s="8"/>
       <c r="AE10" s="8"/>
     </row>
-    <row r="11" spans="1:31" ht="126.75" customHeight="1">
+    <row r="11" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="7">
+      <c r="C11" s="7" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -1810,23 +1707,23 @@
         <v>38</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="6">
+      <c r="K11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="6"/>
-      <c r="M11" s="6">
+      <c r="M11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N11" s="6"/>
-      <c r="O11" s="6">
+      <c r="O11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="P11" s="6"/>
-      <c r="Q11" s="6">
+      <c r="Q11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R11" s="6"/>
-      <c r="S11" s="6">
+      <c r="S11" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T11" s="8"/>
@@ -1842,14 +1739,14 @@
       <c r="AD11" s="8"/>
       <c r="AE11" s="8"/>
     </row>
-    <row r="12" spans="1:31" ht="126.75" customHeight="1">
+    <row r="12" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="7" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -1871,15 +1768,15 @@
         <v>50</v>
       </c>
       <c r="J12" s="6"/>
-      <c r="K12" s="6">
+      <c r="K12" s="6" t="n">
         <v>4</v>
       </c>
       <c r="L12" s="6"/>
-      <c r="M12" s="6">
+      <c r="M12" s="6" t="n">
         <v>3</v>
       </c>
       <c r="N12" s="6"/>
-      <c r="O12" s="6">
+      <c r="O12" s="6" t="n">
         <v>3</v>
       </c>
       <c r="P12" s="6"/>
@@ -1899,14 +1796,14 @@
       <c r="AD12" s="8"/>
       <c r="AE12" s="8"/>
     </row>
-    <row r="13" spans="1:31" ht="126.75" customHeight="1">
+    <row r="13" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="7" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1928,15 +1825,15 @@
         <v>52</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="6">
+      <c r="K13" s="6" t="n">
         <v>4</v>
       </c>
       <c r="L13" s="6"/>
-      <c r="M13" s="6">
+      <c r="M13" s="6" t="n">
         <v>3</v>
       </c>
       <c r="N13" s="6"/>
-      <c r="O13" s="6">
+      <c r="O13" s="6" t="n">
         <v>3</v>
       </c>
       <c r="P13" s="6"/>
@@ -1956,12 +1853,12 @@
       <c r="AD13" s="8"/>
       <c r="AE13" s="8"/>
     </row>
-    <row r="14" spans="1:31" ht="126.75" customHeight="1">
+    <row r="14" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="7">
+      <c r="C14" s="7" t="n">
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -1979,15 +1876,15 @@
         <v>54</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="6">
+      <c r="K14" s="6" t="n">
         <v>4</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="6">
+      <c r="M14" s="6" t="n">
         <v>3</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="6">
+      <c r="O14" s="6" t="n">
         <v>3</v>
       </c>
       <c r="P14" s="6"/>
@@ -2007,14 +1904,14 @@
       <c r="AD14" s="8"/>
       <c r="AE14" s="8"/>
     </row>
-    <row r="15" spans="1:31" ht="126.75" customHeight="1">
+    <row r="15" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="7" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -2036,23 +1933,23 @@
         <v>57</v>
       </c>
       <c r="J15" s="6"/>
-      <c r="K15" s="6">
+      <c r="K15" s="6" t="n">
         <v>1</v>
       </c>
       <c r="L15" s="6"/>
-      <c r="M15" s="6">
+      <c r="M15" s="6" t="n">
         <v>3</v>
       </c>
       <c r="N15" s="6"/>
-      <c r="O15" s="6">
+      <c r="O15" s="6" t="n">
         <v>4</v>
       </c>
       <c r="P15" s="6"/>
-      <c r="Q15" s="6">
+      <c r="Q15" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="6"/>
-      <c r="S15" s="6">
+      <c r="S15" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T15" s="8"/>
@@ -2068,14 +1965,14 @@
       <c r="AD15" s="8"/>
       <c r="AE15" s="8"/>
     </row>
-    <row r="16" spans="1:31" ht="126.75" customHeight="1">
+    <row r="16" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="7" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -2097,23 +1994,23 @@
         <v>58</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="6">
+      <c r="K16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="6"/>
-      <c r="M16" s="6">
+      <c r="M16" s="6" t="n">
         <v>3</v>
       </c>
       <c r="N16" s="6"/>
-      <c r="O16" s="6">
+      <c r="O16" s="6" t="n">
         <v>4</v>
       </c>
       <c r="P16" s="6"/>
-      <c r="Q16" s="6">
+      <c r="Q16" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="6"/>
-      <c r="S16" s="6">
+      <c r="S16" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T16" s="8"/>
@@ -2129,14 +2026,14 @@
       <c r="AD16" s="8"/>
       <c r="AE16" s="8"/>
     </row>
-    <row r="17" spans="1:31" ht="126.75" customHeight="1">
+    <row r="17" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="9" t="n">
         <v>44</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="10" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -2158,23 +2055,23 @@
         <v>58</v>
       </c>
       <c r="J17" s="9"/>
-      <c r="K17" s="6">
+      <c r="K17" s="6" t="n">
         <v>1</v>
       </c>
       <c r="L17" s="6"/>
-      <c r="M17" s="6">
+      <c r="M17" s="6" t="n">
         <v>3</v>
       </c>
       <c r="N17" s="6"/>
-      <c r="O17" s="6">
+      <c r="O17" s="6" t="n">
         <v>4</v>
       </c>
       <c r="P17" s="6"/>
-      <c r="Q17" s="6">
+      <c r="Q17" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="6"/>
-      <c r="S17" s="6">
+      <c r="S17" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T17" s="8"/>
@@ -2190,14 +2087,14 @@
       <c r="AD17" s="8"/>
       <c r="AE17" s="8"/>
     </row>
-    <row r="18" spans="1:31" ht="126.75" customHeight="1">
+    <row r="18" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="7" t="n">
         <v>17</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -2219,23 +2116,23 @@
         <v>60</v>
       </c>
       <c r="J18" s="6"/>
-      <c r="K18" s="6">
+      <c r="K18" s="6" t="n">
         <v>1</v>
       </c>
       <c r="L18" s="6"/>
-      <c r="M18" s="6">
+      <c r="M18" s="6" t="n">
         <v>3</v>
       </c>
       <c r="N18" s="6"/>
-      <c r="O18" s="6">
+      <c r="O18" s="6" t="n">
         <v>4</v>
       </c>
       <c r="P18" s="6"/>
-      <c r="Q18" s="6">
+      <c r="Q18" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="6"/>
-      <c r="S18" s="6">
+      <c r="S18" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T18" s="8"/>
@@ -2251,12 +2148,12 @@
       <c r="AD18" s="8"/>
       <c r="AE18" s="8"/>
     </row>
-    <row r="19" spans="1:31" ht="126.75" customHeight="1">
+    <row r="19" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="10">
+      <c r="C19" s="10" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -2274,23 +2171,23 @@
         <v>61</v>
       </c>
       <c r="J19" s="9"/>
-      <c r="K19" s="6">
+      <c r="K19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="L19" s="6"/>
-      <c r="M19" s="6">
+      <c r="M19" s="6" t="n">
         <v>3</v>
       </c>
       <c r="N19" s="6"/>
-      <c r="O19" s="6">
+      <c r="O19" s="6" t="n">
         <v>4</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="6">
+      <c r="Q19" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="6"/>
-      <c r="S19" s="6">
+      <c r="S19" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T19" s="8"/>
@@ -2306,14 +2203,14 @@
       <c r="AD19" s="8"/>
       <c r="AE19" s="8"/>
     </row>
-    <row r="20" spans="1:31" ht="126.75" customHeight="1">
+    <row r="20" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="9" t="n">
         <v>58</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="10" t="n">
         <v>19</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -2331,19 +2228,19 @@
       <c r="H20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="9" t="n">
         <v>41</v>
       </c>
       <c r="J20" s="9"/>
-      <c r="K20" s="9">
+      <c r="K20" s="9" t="n">
         <v>4</v>
       </c>
       <c r="L20" s="9"/>
-      <c r="M20" s="9">
+      <c r="M20" s="9" t="n">
         <v>3</v>
       </c>
       <c r="N20" s="9"/>
-      <c r="O20" s="9">
+      <c r="O20" s="9" t="n">
         <v>3</v>
       </c>
       <c r="P20" s="9"/>
@@ -2363,14 +2260,14 @@
       <c r="AD20" s="8"/>
       <c r="AE20" s="8"/>
     </row>
-    <row r="21" spans="1:31" ht="126.75" customHeight="1">
+    <row r="21" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="9" t="n">
         <v>59</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="10" t="n">
         <v>20</v>
       </c>
       <c r="D21" s="9" t="s">
@@ -2388,19 +2285,19 @@
       <c r="H21" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="9" t="n">
         <v>48</v>
       </c>
       <c r="J21" s="9"/>
-      <c r="K21" s="9">
+      <c r="K21" s="9" t="n">
         <v>4</v>
       </c>
       <c r="L21" s="9"/>
-      <c r="M21" s="9">
+      <c r="M21" s="9" t="n">
         <v>3</v>
       </c>
       <c r="N21" s="9"/>
-      <c r="O21" s="9">
+      <c r="O21" s="9" t="n">
         <v>3</v>
       </c>
       <c r="P21" s="9"/>
@@ -2420,14 +2317,14 @@
       <c r="AD21" s="8"/>
       <c r="AE21" s="8"/>
     </row>
-    <row r="22" spans="1:31" ht="126.75" customHeight="1">
+    <row r="22" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="7" t="n">
         <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -2445,27 +2342,27 @@
       <c r="H22" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="9">
+      <c r="K22" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L22" s="9"/>
-      <c r="M22" s="9">
+      <c r="M22" s="9" t="n">
         <v>1</v>
       </c>
       <c r="N22" s="9"/>
-      <c r="O22" s="9">
+      <c r="O22" s="9" t="n">
         <v>1</v>
       </c>
       <c r="P22" s="9"/>
-      <c r="Q22" s="6">
+      <c r="Q22" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R22" s="6"/>
-      <c r="S22" s="6">
+      <c r="S22" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T22" s="8"/>
@@ -2481,14 +2378,14 @@
       <c r="AD22" s="8"/>
       <c r="AE22" s="8"/>
     </row>
-    <row r="23" spans="1:31" ht="126.75" customHeight="1">
+    <row r="23" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23" s="9" t="n">
         <v>61</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="10" t="n">
         <v>22</v>
       </c>
       <c r="D23" s="9" t="s">
@@ -2506,27 +2403,27 @@
       <c r="H23" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I23" s="9">
+      <c r="I23" s="9" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="9"/>
-      <c r="K23" s="9">
+      <c r="K23" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L23" s="9"/>
-      <c r="M23" s="9">
+      <c r="M23" s="9" t="n">
         <v>1</v>
       </c>
       <c r="N23" s="9"/>
-      <c r="O23" s="9">
+      <c r="O23" s="9" t="n">
         <v>1</v>
       </c>
       <c r="P23" s="9"/>
-      <c r="Q23" s="6">
+      <c r="Q23" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R23" s="6"/>
-      <c r="S23" s="6">
+      <c r="S23" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T23" s="8"/>
@@ -2542,14 +2439,14 @@
       <c r="AD23" s="8"/>
       <c r="AE23" s="8"/>
     </row>
-    <row r="24" spans="1:31" ht="126.75" customHeight="1">
+    <row r="24" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="9" t="n">
         <v>62</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="10" t="n">
         <v>23</v>
       </c>
       <c r="D24" s="9" t="s">
@@ -2571,23 +2468,23 @@
         <v>70</v>
       </c>
       <c r="J24" s="9"/>
-      <c r="K24" s="9">
+      <c r="K24" s="9" t="n">
         <v>1</v>
       </c>
       <c r="L24" s="9"/>
-      <c r="M24" s="9">
+      <c r="M24" s="9" t="n">
         <v>1</v>
       </c>
       <c r="N24" s="9"/>
-      <c r="O24" s="9">
+      <c r="O24" s="9" t="n">
         <v>1</v>
       </c>
       <c r="P24" s="9"/>
-      <c r="Q24" s="6">
+      <c r="Q24" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R24" s="6"/>
-      <c r="S24" s="6">
+      <c r="S24" s="6" t="n">
         <v>5</v>
       </c>
       <c r="T24" s="8"/>
@@ -2603,14 +2500,14 @@
       <c r="AD24" s="8"/>
       <c r="AE24" s="8"/>
     </row>
-    <row r="25" spans="1:31" ht="126.75" customHeight="1">
+    <row r="25" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25" s="9" t="n">
         <v>64</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="10" t="n">
         <v>24</v>
       </c>
       <c r="D25" s="9" t="s">
@@ -2628,19 +2525,19 @@
       <c r="H25" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I25" s="9">
+      <c r="I25" s="9" t="n">
         <v>495</v>
       </c>
       <c r="J25" s="9"/>
-      <c r="K25" s="9">
+      <c r="K25" s="9" t="n">
         <v>5</v>
       </c>
       <c r="L25" s="9"/>
-      <c r="M25" s="9">
+      <c r="M25" s="9" t="n">
         <v>3</v>
       </c>
       <c r="N25" s="9"/>
-      <c r="O25" s="9">
+      <c r="O25" s="9" t="n">
         <v>3</v>
       </c>
       <c r="P25" s="9"/>
@@ -2660,14 +2557,14 @@
       <c r="AD25" s="8"/>
       <c r="AE25" s="8"/>
     </row>
-    <row r="26" spans="1:31" ht="126.75" customHeight="1">
+    <row r="26" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="9">
+      <c r="B26" s="9" t="n">
         <v>65</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="10" t="n">
         <v>25</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -2685,19 +2582,19 @@
       <c r="H26" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="9">
+      <c r="I26" s="9" t="n">
         <v>973</v>
       </c>
       <c r="J26" s="9"/>
-      <c r="K26" s="9">
+      <c r="K26" s="9" t="n">
         <v>5</v>
       </c>
       <c r="L26" s="9"/>
-      <c r="M26" s="9">
+      <c r="M26" s="9" t="n">
         <v>3</v>
       </c>
       <c r="N26" s="9"/>
-      <c r="O26" s="9">
+      <c r="O26" s="9" t="n">
         <v>3</v>
       </c>
       <c r="P26" s="9"/>
@@ -2717,14 +2614,14 @@
       <c r="AD26" s="8"/>
       <c r="AE26" s="8"/>
     </row>
-    <row r="27" spans="1:31" ht="126.75" customHeight="1">
+    <row r="27" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="7" t="n">
         <v>26</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -2742,27 +2639,27 @@
       <c r="H27" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="6" t="n">
         <v>18</v>
       </c>
       <c r="J27" s="6"/>
-      <c r="K27" s="6">
+      <c r="K27" s="6" t="n">
         <v>5</v>
       </c>
       <c r="L27" s="6"/>
-      <c r="M27" s="6">
+      <c r="M27" s="6" t="n">
         <v>4</v>
       </c>
       <c r="N27" s="6"/>
-      <c r="O27" s="6">
+      <c r="O27" s="6" t="n">
         <v>4</v>
       </c>
       <c r="P27" s="6"/>
-      <c r="Q27" s="6">
+      <c r="Q27" s="6" t="n">
         <v>4</v>
       </c>
       <c r="R27" s="6"/>
-      <c r="S27" s="6">
+      <c r="S27" s="6" t="n">
         <v>3</v>
       </c>
       <c r="T27" s="8"/>
@@ -2778,14 +2675,14 @@
       <c r="AD27" s="8"/>
       <c r="AE27" s="8"/>
     </row>
-    <row r="28" spans="1:31" ht="126.75" customHeight="1">
+    <row r="28" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28" s="9" t="n">
         <v>69</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="10" t="n">
         <v>27</v>
       </c>
       <c r="D28" s="9" t="s">
@@ -2803,27 +2700,27 @@
       <c r="H28" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I28" s="9">
+      <c r="I28" s="9" t="n">
         <v>31</v>
       </c>
       <c r="J28" s="9"/>
-      <c r="K28" s="6">
+      <c r="K28" s="6" t="n">
         <v>5</v>
       </c>
       <c r="L28" s="6"/>
-      <c r="M28" s="6">
+      <c r="M28" s="6" t="n">
         <v>4</v>
       </c>
       <c r="N28" s="6"/>
-      <c r="O28" s="6">
+      <c r="O28" s="6" t="n">
         <v>4</v>
       </c>
       <c r="P28" s="6"/>
-      <c r="Q28" s="6">
+      <c r="Q28" s="6" t="n">
         <v>4</v>
       </c>
       <c r="R28" s="6"/>
-      <c r="S28" s="6">
+      <c r="S28" s="6" t="n">
         <v>3</v>
       </c>
       <c r="T28" s="8"/>
@@ -2839,14 +2736,14 @@
       <c r="AD28" s="8"/>
       <c r="AE28" s="8"/>
     </row>
-    <row r="29" spans="1:31" ht="126.75" customHeight="1">
+    <row r="29" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="7" t="n">
         <v>28</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -2868,23 +2765,23 @@
         <v>78</v>
       </c>
       <c r="J29" s="6"/>
-      <c r="K29" s="6">
+      <c r="K29" s="6" t="n">
         <v>5</v>
       </c>
       <c r="L29" s="6"/>
-      <c r="M29" s="6">
+      <c r="M29" s="6" t="n">
         <v>4</v>
       </c>
       <c r="N29" s="6"/>
-      <c r="O29" s="6">
+      <c r="O29" s="6" t="n">
         <v>4</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="6">
+      <c r="Q29" s="6" t="n">
         <v>4</v>
       </c>
       <c r="R29" s="6"/>
-      <c r="S29" s="6">
+      <c r="S29" s="6" t="n">
         <v>3</v>
       </c>
       <c r="T29" s="8"/>
@@ -2900,14 +2797,14 @@
       <c r="AD29" s="8"/>
       <c r="AE29" s="8"/>
     </row>
-    <row r="30" spans="1:31" ht="126.75" customHeight="1">
+    <row r="30" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="9">
+      <c r="B30" s="9" t="n">
         <v>23</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="10" t="n">
         <v>29</v>
       </c>
       <c r="D30" s="9" t="s">
@@ -2929,19 +2826,19 @@
         <v>25</v>
       </c>
       <c r="J30" s="9"/>
-      <c r="K30" s="9">
+      <c r="K30" s="9" t="n">
         <v>3</v>
       </c>
       <c r="L30" s="9"/>
-      <c r="M30" s="9">
+      <c r="M30" s="9" t="n">
         <v>3</v>
       </c>
       <c r="N30" s="9"/>
-      <c r="O30" s="9">
+      <c r="O30" s="9" t="n">
         <v>4</v>
       </c>
       <c r="P30" s="9"/>
-      <c r="Q30" s="9">
+      <c r="Q30" s="9" t="n">
         <v>4</v>
       </c>
       <c r="R30" s="9"/>
@@ -2959,14 +2856,14 @@
       <c r="AD30" s="8"/>
       <c r="AE30" s="8"/>
     </row>
-    <row r="31" spans="1:31" ht="126.75" customHeight="1">
+    <row r="31" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="9">
+      <c r="B31" s="9" t="n">
         <v>25</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="10" t="n">
         <v>30</v>
       </c>
       <c r="D31" s="9" t="s">
@@ -2988,19 +2885,19 @@
         <v>25</v>
       </c>
       <c r="J31" s="9"/>
-      <c r="K31" s="9">
+      <c r="K31" s="9" t="n">
         <v>5</v>
       </c>
       <c r="L31" s="9"/>
-      <c r="M31" s="9">
+      <c r="M31" s="9" t="n">
         <v>5</v>
       </c>
       <c r="N31" s="9"/>
-      <c r="O31" s="9">
+      <c r="O31" s="9" t="n">
         <v>5</v>
       </c>
       <c r="P31" s="9"/>
-      <c r="Q31" s="9">
+      <c r="Q31" s="9" t="n">
         <v>3</v>
       </c>
       <c r="R31" s="9"/>
@@ -3018,14 +2915,14 @@
       <c r="AD31" s="8"/>
       <c r="AE31" s="8"/>
     </row>
-    <row r="32" spans="1:31" ht="126.75" customHeight="1">
+    <row r="32" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="7" t="n">
         <v>31</v>
       </c>
       <c r="D32" s="6" t="s">
@@ -3047,23 +2944,23 @@
         <v>25</v>
       </c>
       <c r="J32" s="6"/>
-      <c r="K32" s="6">
+      <c r="K32" s="6" t="n">
         <v>3</v>
       </c>
       <c r="L32" s="6"/>
-      <c r="M32" s="6">
+      <c r="M32" s="6" t="n">
         <v>3</v>
       </c>
       <c r="N32" s="6"/>
-      <c r="O32" s="6">
+      <c r="O32" s="6" t="n">
         <v>3</v>
       </c>
       <c r="P32" s="6"/>
-      <c r="Q32" s="6">
+      <c r="Q32" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R32" s="6"/>
-      <c r="S32" s="6">
+      <c r="S32" s="6" t="n">
         <v>1</v>
       </c>
       <c r="T32" s="8"/>
@@ -3079,12 +2976,12 @@
       <c r="AD32" s="8"/>
       <c r="AE32" s="8"/>
     </row>
-    <row r="33" spans="1:31" ht="126.75" customHeight="1">
+    <row r="33" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B33" s="6"/>
-      <c r="C33" s="7">
+      <c r="C33" s="7" t="n">
         <v>32</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -3106,23 +3003,23 @@
         <v>86</v>
       </c>
       <c r="J33" s="6"/>
-      <c r="K33" s="6">
+      <c r="K33" s="6" t="n">
         <v>3</v>
       </c>
       <c r="L33" s="6"/>
-      <c r="M33" s="6">
+      <c r="M33" s="6" t="n">
         <v>3</v>
       </c>
       <c r="N33" s="6"/>
-      <c r="O33" s="6">
+      <c r="O33" s="6" t="n">
         <v>3</v>
       </c>
       <c r="P33" s="6"/>
-      <c r="Q33" s="6">
+      <c r="Q33" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R33" s="6"/>
-      <c r="S33" s="6">
+      <c r="S33" s="6" t="n">
         <v>1</v>
       </c>
       <c r="T33" s="8"/>
@@ -3140,27 +3037,35 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I6" r:id="rId1" xr:uid="{53A16448-1737-4FD0-8E3A-C226754151EA}"/>
-    <hyperlink ref="I11" r:id="rId2" xr:uid="{C2740FBA-59A3-42C9-A71D-86C03FD0C09F}"/>
-    <hyperlink ref="I14" r:id="rId3" xr:uid="{8C22CE71-FD56-48A4-8159-FDF0455D7A5F}"/>
-    <hyperlink ref="I19" r:id="rId4" xr:uid="{C7F4F270-00CF-491C-9948-A9DE57FE9BB2}"/>
+    <hyperlink ref="I6" r:id="rId1" display="Ejecucion gastos 2023_2024_engativa.xlsx"/>
+    <hyperlink ref="I11" r:id="rId2" display="Ejecucion gastos 2023_2024_engativa.xlsx"/>
+    <hyperlink ref="I14" r:id="rId3" display="Informes_ejecución presupuestal 2023 y 2024.pdf"/>
+    <hyperlink ref="I19" r:id="rId4" display="Informes_Ejecución presupuestal_corte_dic_2023 y 2024.pdf"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44900870-D347-4CB8-AF4B-2CEC0AB0F8D2}">
-  <sheetPr codeName="Hoja3"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView topLeftCell="H17" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R20" activeCellId="0" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="43.5" customHeight="1">
+    <row r="1" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3231,14 +3136,14 @@
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
     </row>
-    <row r="2" spans="1:31" ht="126.75" customHeight="1">
+    <row r="2" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="6" t="n">
         <v>88</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -3260,15 +3165,15 @@
         <v>25</v>
       </c>
       <c r="J2" s="6"/>
-      <c r="K2" s="6">
+      <c r="K2" s="6" t="n">
         <v>4</v>
       </c>
       <c r="L2" s="13"/>
-      <c r="M2" s="6">
+      <c r="M2" s="6" t="n">
         <v>3</v>
       </c>
       <c r="N2" s="6"/>
-      <c r="O2" s="6">
+      <c r="O2" s="6" t="n">
         <v>5</v>
       </c>
       <c r="P2" s="6"/>
@@ -3276,14 +3181,14 @@
       <c r="R2" s="6"/>
       <c r="S2" s="14"/>
     </row>
-    <row r="3" spans="1:31" ht="126.75" customHeight="1">
+    <row r="3" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="9" t="n">
         <v>90</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="10" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -3305,32 +3210,32 @@
         <v>25</v>
       </c>
       <c r="J3" s="9"/>
-      <c r="K3" s="9">
+      <c r="K3" s="9" t="n">
         <v>5</v>
       </c>
       <c r="L3" s="15"/>
-      <c r="M3" s="9">
+      <c r="M3" s="9" t="n">
         <v>5</v>
       </c>
       <c r="N3" s="9"/>
-      <c r="O3" s="9">
+      <c r="O3" s="9" t="n">
         <v>5</v>
       </c>
       <c r="P3" s="9"/>
-      <c r="Q3" s="9">
+      <c r="Q3" s="9" t="n">
         <v>5</v>
       </c>
       <c r="R3" s="9"/>
       <c r="S3" s="16"/>
     </row>
-    <row r="4" spans="1:31" ht="126.75" customHeight="1">
+    <row r="4" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="6" t="n">
         <v>94</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
@@ -3352,32 +3257,32 @@
         <v>25</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="6">
+      <c r="K4" s="6" t="n">
         <v>5</v>
       </c>
       <c r="L4" s="13"/>
-      <c r="M4" s="6">
+      <c r="M4" s="6" t="n">
         <v>5</v>
       </c>
       <c r="N4" s="6"/>
-      <c r="O4" s="6">
+      <c r="O4" s="6" t="n">
         <v>5</v>
       </c>
       <c r="P4" s="6"/>
-      <c r="Q4" s="6">
+      <c r="Q4" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R4" s="6"/>
       <c r="S4" s="17"/>
     </row>
-    <row r="5" spans="1:31" ht="126.75" customHeight="1">
+    <row r="5" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
@@ -3399,34 +3304,34 @@
         <v>25</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="6">
+      <c r="K5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="L5" s="13"/>
-      <c r="M5" s="6">
+      <c r="M5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N5" s="6"/>
-      <c r="O5" s="6">
+      <c r="O5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="P5" s="6"/>
-      <c r="Q5" s="6">
+      <c r="Q5" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R5" s="6"/>
-      <c r="S5" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="126.75" customHeight="1">
+      <c r="S5" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="6" t="n">
         <v>96</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -3448,34 +3353,34 @@
         <v>25</v>
       </c>
       <c r="J6" s="6"/>
-      <c r="K6" s="6">
+      <c r="K6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="L6" s="13"/>
-      <c r="M6" s="6">
+      <c r="M6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="N6" s="6"/>
-      <c r="O6" s="6">
+      <c r="O6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="P6" s="6"/>
-      <c r="Q6" s="6">
+      <c r="Q6" s="6" t="n">
         <v>1</v>
       </c>
       <c r="R6" s="6"/>
-      <c r="S6" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="126.75" customHeight="1">
+      <c r="S6" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="6" t="n">
         <v>97</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
@@ -3497,34 +3402,34 @@
         <v>104</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="6">
+      <c r="K7" s="6" t="n">
         <v>5</v>
       </c>
       <c r="L7" s="13"/>
-      <c r="M7" s="6">
+      <c r="M7" s="6" t="n">
         <v>5</v>
       </c>
       <c r="N7" s="6"/>
-      <c r="O7" s="6">
+      <c r="O7" s="6" t="n">
         <v>3</v>
       </c>
       <c r="P7" s="6"/>
-      <c r="Q7" s="6">
+      <c r="Q7" s="6" t="n">
         <v>3</v>
       </c>
       <c r="R7" s="6"/>
-      <c r="S7" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="126.75" customHeight="1">
+      <c r="S7" s="17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="6" t="n">
         <v>98</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="7" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -3546,34 +3451,34 @@
         <v>107</v>
       </c>
       <c r="J8" s="6"/>
-      <c r="K8" s="6">
+      <c r="K8" s="6" t="n">
         <v>5</v>
       </c>
       <c r="L8" s="13"/>
-      <c r="M8" s="6">
+      <c r="M8" s="6" t="n">
         <v>5</v>
       </c>
       <c r="N8" s="6"/>
-      <c r="O8" s="6">
+      <c r="O8" s="6" t="n">
         <v>3</v>
       </c>
       <c r="P8" s="6"/>
-      <c r="Q8" s="6">
+      <c r="Q8" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R8" s="6"/>
-      <c r="S8" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" ht="126.75" customHeight="1">
+      <c r="S8" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="9" t="n">
         <v>99</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="10" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -3595,34 +3500,34 @@
         <v>110</v>
       </c>
       <c r="J9" s="9"/>
-      <c r="K9" s="9">
+      <c r="K9" s="9" t="n">
         <v>5</v>
       </c>
       <c r="L9" s="15"/>
-      <c r="M9" s="9">
+      <c r="M9" s="9" t="n">
         <v>5</v>
       </c>
       <c r="N9" s="9"/>
-      <c r="O9" s="9">
+      <c r="O9" s="9" t="n">
         <v>1</v>
       </c>
       <c r="P9" s="9"/>
-      <c r="Q9" s="9">
+      <c r="Q9" s="9" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="9"/>
-      <c r="S9" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="126.75" customHeight="1">
+      <c r="S9" s="16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="10" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="9" t="s">
@@ -3644,34 +3549,34 @@
         <v>113</v>
       </c>
       <c r="J10" s="9"/>
-      <c r="K10" s="9">
+      <c r="K10" s="9" t="n">
         <v>3</v>
       </c>
       <c r="L10" s="15"/>
-      <c r="M10" s="9">
+      <c r="M10" s="9" t="n">
         <v>5</v>
       </c>
       <c r="N10" s="9"/>
-      <c r="O10" s="9">
+      <c r="O10" s="9" t="n">
         <v>5</v>
       </c>
       <c r="P10" s="9"/>
-      <c r="Q10" s="9">
+      <c r="Q10" s="9" t="n">
         <v>3</v>
       </c>
       <c r="R10" s="9"/>
-      <c r="S10" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="126.75" customHeight="1">
+      <c r="S10" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="6" t="n">
         <v>101</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="7" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -3693,34 +3598,34 @@
         <v>116</v>
       </c>
       <c r="J11" s="6"/>
-      <c r="K11" s="6">
+      <c r="K11" s="6" t="n">
         <v>1</v>
       </c>
       <c r="L11" s="13"/>
-      <c r="M11" s="6">
+      <c r="M11" s="6" t="n">
         <v>5</v>
       </c>
       <c r="N11" s="6"/>
-      <c r="O11" s="6">
+      <c r="O11" s="6" t="n">
         <v>3</v>
       </c>
       <c r="P11" s="6"/>
-      <c r="Q11" s="6">
+      <c r="Q11" s="6" t="n">
         <v>3</v>
       </c>
       <c r="R11" s="6"/>
-      <c r="S11" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="126.75" customHeight="1">
+      <c r="S11" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="9" t="n">
         <v>102</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="10" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="9" t="s">
@@ -3742,34 +3647,34 @@
         <v>119</v>
       </c>
       <c r="J12" s="9"/>
-      <c r="K12" s="9">
+      <c r="K12" s="9" t="n">
         <v>5</v>
       </c>
       <c r="L12" s="15"/>
-      <c r="M12" s="9">
+      <c r="M12" s="9" t="n">
         <v>5</v>
       </c>
       <c r="N12" s="9"/>
-      <c r="O12" s="9">
+      <c r="O12" s="9" t="n">
         <v>5</v>
       </c>
       <c r="P12" s="9"/>
-      <c r="Q12" s="9">
+      <c r="Q12" s="9" t="n">
         <v>5</v>
       </c>
       <c r="R12" s="9"/>
-      <c r="S12" s="16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="126.75" customHeight="1">
+      <c r="S12" s="16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="6" t="n">
         <v>103</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="7" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -3791,34 +3696,34 @@
         <v>122</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="6">
+      <c r="K13" s="6" t="n">
         <v>5</v>
       </c>
       <c r="L13" s="13"/>
-      <c r="M13" s="6">
+      <c r="M13" s="6" t="n">
         <v>5</v>
       </c>
       <c r="N13" s="6"/>
-      <c r="O13" s="6">
+      <c r="O13" s="6" t="n">
         <v>5</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="Q13" s="6">
+      <c r="Q13" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R13" s="6"/>
-      <c r="S13" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="126.75" customHeight="1">
+      <c r="S13" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="6" t="n">
         <v>104</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="7" t="n">
         <v>13</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -3840,34 +3745,34 @@
         <v>125</v>
       </c>
       <c r="J14" s="6"/>
-      <c r="K14" s="6">
+      <c r="K14" s="6" t="n">
         <v>5</v>
       </c>
       <c r="L14" s="13"/>
-      <c r="M14" s="6">
+      <c r="M14" s="6" t="n">
         <v>5</v>
       </c>
       <c r="N14" s="6"/>
-      <c r="O14" s="6">
+      <c r="O14" s="6" t="n">
         <v>5</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="6">
+      <c r="Q14" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R14" s="6"/>
-      <c r="S14" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="126.75" customHeight="1">
+      <c r="S14" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="9" t="n">
         <v>105</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="10" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="9" t="s">
@@ -3889,34 +3794,34 @@
         <v>128</v>
       </c>
       <c r="J15" s="9"/>
-      <c r="K15" s="9">
+      <c r="K15" s="9" t="n">
         <v>3</v>
       </c>
       <c r="L15" s="15"/>
-      <c r="M15" s="9">
+      <c r="M15" s="9" t="n">
         <v>1</v>
       </c>
       <c r="N15" s="9"/>
-      <c r="O15" s="9">
+      <c r="O15" s="9" t="n">
         <v>1</v>
       </c>
       <c r="P15" s="9"/>
-      <c r="Q15" s="9">
+      <c r="Q15" s="9" t="n">
         <v>1</v>
       </c>
       <c r="R15" s="9"/>
-      <c r="S15" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="126.75" customHeight="1">
+      <c r="S15" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="6" t="n">
         <v>107</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="7" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -3938,34 +3843,34 @@
         <v>25</v>
       </c>
       <c r="J16" s="6"/>
-      <c r="K16" s="6">
+      <c r="K16" s="6" t="n">
         <v>5</v>
       </c>
       <c r="L16" s="13"/>
-      <c r="M16" s="6">
+      <c r="M16" s="6" t="n">
         <v>4</v>
       </c>
       <c r="N16" s="6"/>
-      <c r="O16" s="6">
+      <c r="O16" s="6" t="n">
         <v>3</v>
       </c>
       <c r="P16" s="6"/>
-      <c r="Q16" s="6">
+      <c r="Q16" s="6" t="n">
         <v>4</v>
       </c>
       <c r="R16" s="6"/>
-      <c r="S16" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="126.75" customHeight="1">
+      <c r="S16" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="6" t="n">
         <v>108</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="7" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -3987,30 +3892,30 @@
         <v>25</v>
       </c>
       <c r="J17" s="6"/>
-      <c r="K17" s="6">
+      <c r="K17" s="6" t="n">
         <v>3</v>
       </c>
       <c r="L17" s="13"/>
-      <c r="M17" s="6">
+      <c r="M17" s="6" t="n">
         <v>3</v>
       </c>
       <c r="N17" s="6"/>
-      <c r="O17" s="6">
+      <c r="O17" s="6" t="n">
         <v>5</v>
       </c>
       <c r="P17" s="6"/>
-      <c r="Q17" s="6">
+      <c r="Q17" s="6" t="n">
         <v>2</v>
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="17"/>
     </row>
-    <row r="18" spans="1:19" ht="126.75" customHeight="1">
+    <row r="18" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="10">
+      <c r="C18" s="10" t="n">
         <v>17</v>
       </c>
       <c r="D18" s="9" t="s">
@@ -4028,32 +3933,32 @@
         <v>137</v>
       </c>
       <c r="J18" s="9"/>
-      <c r="K18" s="9">
+      <c r="K18" s="9" t="n">
         <v>5</v>
       </c>
       <c r="L18" s="15"/>
-      <c r="M18" s="9">
+      <c r="M18" s="9" t="n">
         <v>3</v>
       </c>
       <c r="N18" s="9"/>
-      <c r="O18" s="9">
+      <c r="O18" s="9" t="n">
         <v>5</v>
       </c>
       <c r="P18" s="9"/>
-      <c r="Q18" s="9">
+      <c r="Q18" s="9" t="n">
         <v>3</v>
       </c>
       <c r="R18" s="9"/>
-      <c r="S18" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="126.75" customHeight="1">
+      <c r="S18" s="16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="10">
+      <c r="C19" s="10" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -4071,34 +3976,34 @@
         <v>140</v>
       </c>
       <c r="J19" s="9"/>
-      <c r="K19" s="9">
+      <c r="K19" s="9" t="n">
         <v>5</v>
       </c>
       <c r="L19" s="15"/>
-      <c r="M19" s="9">
+      <c r="M19" s="9" t="n">
         <v>5</v>
       </c>
       <c r="N19" s="9"/>
-      <c r="O19" s="9">
+      <c r="O19" s="9" t="n">
         <v>3</v>
       </c>
       <c r="P19" s="9"/>
-      <c r="Q19" s="9">
+      <c r="Q19" s="9" t="n">
         <v>5</v>
       </c>
       <c r="R19" s="9"/>
-      <c r="S19" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="126.75" customHeight="1">
+      <c r="S19" s="16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="6" t="n">
         <v>193</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="7" t="n">
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -4120,41 +4025,49 @@
         <v>25</v>
       </c>
       <c r="J20" s="6"/>
-      <c r="K20" s="6">
+      <c r="K20" s="6" t="n">
         <v>5</v>
       </c>
       <c r="L20" s="13"/>
-      <c r="M20" s="6">
+      <c r="M20" s="6" t="n">
         <v>3</v>
       </c>
       <c r="N20" s="6"/>
-      <c r="O20" s="6">
+      <c r="O20" s="6" t="n">
         <v>5</v>
       </c>
       <c r="P20" s="6"/>
-      <c r="Q20" s="6">
+      <c r="Q20" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R20" s="6"/>
       <c r="S20" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EDAB75-E7E0-4CD7-A1C1-F68D3C31C3E7}">
-  <sheetPr codeName="Hoja4"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="43.5" customHeight="1">
+    <row r="1" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4225,14 +4138,14 @@
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
     </row>
-    <row r="2" spans="1:31" ht="126.75" customHeight="1">
+    <row r="2" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="6" t="n">
         <v>151</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -4251,137 +4164,145 @@
         <v>92</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="J2" s="6"/>
-      <c r="K2" s="6">
+      <c r="K2" s="6" t="n">
         <v>3</v>
       </c>
       <c r="L2" s="13"/>
-      <c r="M2" s="6">
+      <c r="M2" s="6" t="n">
         <v>3</v>
       </c>
       <c r="N2" s="6"/>
-      <c r="O2" s="6">
+      <c r="O2" s="6" t="n">
         <v>5</v>
       </c>
       <c r="P2" s="6"/>
-      <c r="Q2" s="6">
+      <c r="Q2" s="6" t="n">
         <v>5</v>
       </c>
       <c r="R2" s="6"/>
       <c r="S2" s="14"/>
     </row>
-    <row r="3" spans="1:31" ht="126.75" customHeight="1">
+    <row r="3" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="9"/>
-      <c r="C3" s="10">
+      <c r="C3" s="10" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>42</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="16">
+      <c r="K3" s="16" t="n">
         <v>3</v>
       </c>
       <c r="L3" s="16"/>
-      <c r="M3" s="16">
+      <c r="M3" s="16" t="n">
         <v>5</v>
       </c>
       <c r="N3" s="16"/>
-      <c r="O3" s="16">
+      <c r="O3" s="16" t="n">
         <v>5</v>
       </c>
       <c r="P3" s="16"/>
-      <c r="Q3" s="16">
+      <c r="Q3" s="16" t="n">
         <v>3</v>
       </c>
       <c r="R3" s="16"/>
-      <c r="S3" s="16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="126.75" customHeight="1">
+      <c r="S3" s="16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="7">
+      <c r="C4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>37</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J4" s="17"/>
-      <c r="K4" s="16">
+      <c r="K4" s="16" t="n">
         <v>3</v>
       </c>
       <c r="L4" s="16"/>
-      <c r="M4" s="16">
+      <c r="M4" s="16" t="n">
         <v>5</v>
       </c>
       <c r="N4" s="16"/>
-      <c r="O4" s="16">
+      <c r="O4" s="16" t="n">
         <v>5</v>
       </c>
       <c r="P4" s="16"/>
-      <c r="Q4" s="16">
+      <c r="Q4" s="16" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="16"/>
-      <c r="S4" s="16">
+      <c r="S4" s="16" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" xr:uid="{439654C5-17B9-4203-8012-AA4351C2201E}"/>
+    <hyperlink ref="I4" r:id="rId1" display="Manual Tecnico sistema de información WEB Miengativapp.pdf"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9863D4F9-3C8C-41D6-948B-D422E9530E62}">
-  <sheetPr codeName="Hoja5"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView topLeftCell="J8" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T10" activeCellId="0" sqref="T10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:31" ht="43.5" customHeight="1">
+    <row r="1" customFormat="false" ht="43.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4452,27 +4373,27 @@
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
     </row>
-    <row r="2" spans="1:31" ht="126.75" customHeight="1">
+    <row r="2" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="17" t="n">
         <v>153</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H2" s="17" t="s">
         <v>92</v>
@@ -4481,411 +4402,411 @@
         <v>25</v>
       </c>
       <c r="J2" s="17"/>
-      <c r="K2" s="17">
+      <c r="K2" s="17" t="n">
         <v>5</v>
       </c>
       <c r="L2" s="18"/>
-      <c r="M2" s="17">
+      <c r="M2" s="17" t="n">
         <v>2</v>
       </c>
       <c r="N2" s="17"/>
-      <c r="O2" s="17">
+      <c r="O2" s="17" t="n">
         <v>3</v>
       </c>
       <c r="P2" s="17"/>
-      <c r="Q2" s="17">
+      <c r="Q2" s="17" t="n">
         <v>5</v>
       </c>
       <c r="R2" s="17"/>
       <c r="S2" s="17"/>
     </row>
-    <row r="3" spans="1:31" ht="126.75" customHeight="1">
+    <row r="3" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="17"/>
-      <c r="C3" s="7">
+      <c r="C3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>42</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J3" s="17"/>
-      <c r="K3" s="17">
+      <c r="K3" s="17" t="n">
         <v>3</v>
       </c>
       <c r="L3" s="18"/>
-      <c r="M3" s="17">
+      <c r="M3" s="17" t="n">
         <v>5</v>
       </c>
       <c r="N3" s="17"/>
-      <c r="O3" s="17">
+      <c r="O3" s="17" t="n">
         <v>1</v>
       </c>
       <c r="P3" s="17"/>
-      <c r="Q3" s="17">
+      <c r="Q3" s="17" t="n">
         <v>3</v>
       </c>
       <c r="R3" s="17"/>
-      <c r="S3" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="126.75" customHeight="1">
+      <c r="S3" s="17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="17"/>
-      <c r="C4" s="7">
+      <c r="C4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H4" s="17" t="s">
         <v>37</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J4" s="17"/>
-      <c r="K4" s="17">
+      <c r="K4" s="17" t="n">
         <v>3</v>
       </c>
       <c r="L4" s="18"/>
-      <c r="M4" s="17">
+      <c r="M4" s="17" t="n">
         <v>5</v>
       </c>
       <c r="N4" s="17"/>
-      <c r="O4" s="17">
+      <c r="O4" s="17" t="n">
         <v>1</v>
       </c>
       <c r="P4" s="17"/>
-      <c r="Q4" s="17">
+      <c r="Q4" s="17" t="n">
         <v>3</v>
       </c>
       <c r="R4" s="17"/>
-      <c r="S4" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="126.75" customHeight="1">
+      <c r="S4" s="17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="17"/>
-      <c r="C5" s="7">
+      <c r="C5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H5" s="17" t="s">
         <v>42</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J5" s="17"/>
-      <c r="K5" s="17">
+      <c r="K5" s="17" t="n">
         <v>3</v>
       </c>
       <c r="L5" s="18"/>
-      <c r="M5" s="17">
+      <c r="M5" s="17" t="n">
         <v>5</v>
       </c>
       <c r="N5" s="17"/>
-      <c r="O5" s="17">
+      <c r="O5" s="17" t="n">
         <v>3</v>
       </c>
       <c r="P5" s="17"/>
-      <c r="Q5" s="17">
+      <c r="Q5" s="17" t="n">
         <v>3</v>
       </c>
       <c r="R5" s="17"/>
-      <c r="S5" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="126.75" customHeight="1">
+      <c r="S5" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="16"/>
-      <c r="C6" s="10">
+      <c r="C6" s="10" t="n">
         <v>4</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F6" s="16"/>
       <c r="G6" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>37</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J6" s="16"/>
-      <c r="K6" s="17">
+      <c r="K6" s="17" t="n">
         <v>3</v>
       </c>
       <c r="L6" s="18"/>
-      <c r="M6" s="17">
+      <c r="M6" s="17" t="n">
         <v>5</v>
       </c>
       <c r="N6" s="17"/>
-      <c r="O6" s="17">
+      <c r="O6" s="17" t="n">
         <v>3</v>
       </c>
       <c r="P6" s="17"/>
-      <c r="Q6" s="17">
+      <c r="Q6" s="17" t="n">
         <v>3</v>
       </c>
       <c r="R6" s="17"/>
-      <c r="S6" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="126.75" customHeight="1">
+      <c r="S6" s="17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="17"/>
-      <c r="C7" s="7">
+      <c r="C7" s="7" t="n">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J7" s="17"/>
-      <c r="K7" s="17">
+      <c r="K7" s="17" t="n">
         <v>5</v>
       </c>
       <c r="L7" s="18"/>
-      <c r="M7" s="17">
+      <c r="M7" s="17" t="n">
         <v>3</v>
       </c>
       <c r="N7" s="17"/>
-      <c r="O7" s="17">
+      <c r="O7" s="17" t="n">
         <v>5</v>
       </c>
       <c r="P7" s="17"/>
-      <c r="Q7" s="17">
+      <c r="Q7" s="17" t="n">
         <v>5</v>
       </c>
       <c r="R7" s="17"/>
-      <c r="S7" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="126.75" customHeight="1">
+      <c r="S7" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="16"/>
-      <c r="C8" s="10">
+      <c r="C8" s="10" t="n">
         <v>5</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J8" s="16"/>
-      <c r="K8" s="17">
+      <c r="K8" s="17" t="n">
         <v>5</v>
       </c>
       <c r="L8" s="18"/>
-      <c r="M8" s="17">
+      <c r="M8" s="17" t="n">
         <v>3</v>
       </c>
       <c r="N8" s="17"/>
-      <c r="O8" s="17">
+      <c r="O8" s="17" t="n">
         <v>5</v>
       </c>
       <c r="P8" s="17"/>
-      <c r="Q8" s="17">
+      <c r="Q8" s="17" t="n">
         <v>5</v>
       </c>
       <c r="R8" s="17"/>
-      <c r="S8" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:31" ht="126.75" customHeight="1">
+      <c r="S8" s="17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="16"/>
-      <c r="C9" s="10">
+      <c r="C9" s="10" t="n">
         <v>6</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>42</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J9" s="16"/>
-      <c r="K9" s="16">
+      <c r="K9" s="16" t="n">
         <v>1</v>
       </c>
       <c r="L9" s="21"/>
-      <c r="M9" s="16">
+      <c r="M9" s="16" t="n">
         <v>1</v>
       </c>
       <c r="N9" s="16"/>
-      <c r="O9" s="16">
+      <c r="O9" s="16" t="n">
         <v>1</v>
       </c>
       <c r="P9" s="16"/>
-      <c r="Q9" s="16">
+      <c r="Q9" s="16" t="n">
         <v>1</v>
       </c>
       <c r="R9" s="16"/>
-      <c r="S9" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="126.75" customHeight="1">
+      <c r="S9" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="17"/>
-      <c r="C10" s="7">
+      <c r="C10" s="7" t="n">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H10" s="17" t="s">
         <v>37</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="J10" s="16"/>
-      <c r="K10" s="16">
+      <c r="K10" s="16" t="n">
         <v>1</v>
       </c>
       <c r="L10" s="21"/>
-      <c r="M10" s="16">
+      <c r="M10" s="16" t="n">
         <v>1</v>
       </c>
       <c r="N10" s="16"/>
-      <c r="O10" s="16">
+      <c r="O10" s="16" t="n">
         <v>1</v>
       </c>
       <c r="P10" s="16"/>
-      <c r="Q10" s="16">
+      <c r="Q10" s="16" t="n">
         <v>1</v>
       </c>
       <c r="R10" s="16"/>
-      <c r="S10" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="126.75" customHeight="1">
+      <c r="S10" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="126.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="17" t="n">
         <v>167</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="7" t="n">
         <v>8</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>92</v>
@@ -4894,33 +4815,39 @@
         <v>25</v>
       </c>
       <c r="J11" s="17"/>
-      <c r="K11" s="17">
+      <c r="K11" s="17" t="n">
         <v>3</v>
       </c>
       <c r="L11" s="18"/>
-      <c r="M11" s="17">
+      <c r="M11" s="17" t="n">
         <v>3</v>
       </c>
       <c r="N11" s="17"/>
-      <c r="O11" s="17">
+      <c r="O11" s="17" t="n">
         <v>5</v>
       </c>
       <c r="P11" s="17"/>
-      <c r="Q11" s="17">
+      <c r="Q11" s="17" t="n">
         <v>3</v>
       </c>
       <c r="R11" s="17"/>
-      <c r="S11" s="17">
+      <c r="S11" s="17" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I4" r:id="rId1" xr:uid="{9C23021B-67BE-452C-88BD-8E2250860E15}"/>
-    <hyperlink ref="I6" r:id="rId2" xr:uid="{2DF0167F-C401-4A2B-ABF2-1A862C35D2C8}"/>
-    <hyperlink ref="I8" r:id="rId3" xr:uid="{F225B98A-2FE6-49F0-8075-CA051CB5F701}"/>
-    <hyperlink ref="I10" r:id="rId4" xr:uid="{53C02626-4569-4664-9D76-6C1225D9371F}"/>
+    <hyperlink ref="I4" r:id="rId1" display="Respuesta_Pregunta_36.docx"/>
+    <hyperlink ref="I6" r:id="rId2" display="Pregunta 37.zip"/>
+    <hyperlink ref="I8" r:id="rId3" display="Documento técnico de soporte_Proyecto_1598 Engativa emprende, se transforma e innova.pdf"/>
+    <hyperlink ref="I10" r:id="rId4" display="Matriz_Productos, metas y resultados_Engativá PMR 31-12-2024 (1).pdf"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>